--- a/Lab1/analysis/StringHeuristic3/double-0.xlsx
+++ b/Lab1/analysis/StringHeuristic3/double-0.xlsx
@@ -1474,7 +1474,965 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Elitism</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'double-0'!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'double-0'!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.30000750749999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3615556949999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3643022074999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5125216799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4458472849999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.58384979375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3860559699999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6031755774999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20018426854999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.200179181474999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.200246878799999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.40198355124999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4533626900000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.17439538E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.17052283374999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3255080000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1576445824999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3017318375000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3440983337499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20017446750000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20011559483749899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.200207451175</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4137043112499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9191388924999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8383585337499899E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.91490246E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.88892909E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8370229437499901E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.97038127125E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19999556392500001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2000034926125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.200058009575</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8039298612499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7424584687499899E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8586947937499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8861895262499899E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.97792155749999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9063820612499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9606423E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19998178748749901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.200016365637499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20008518575000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.7491334825000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0245797099999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7108754075000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5322526775E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.72640618125E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.12335392E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7879134224999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20017436146250001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20045788852499899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20047503684999901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.73342605624999E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7021275312499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8657991524999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.7658272275E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8567696524999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9427812075E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5930453037499902E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.86983809375E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20034581909999899</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.20060997428749999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20051657456249999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7030275475000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.92018117875E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8934683324999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.93919390249999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7770213575000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20015728268749899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.20011004328749901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.20040653123749899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20034806449999901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4532877274999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3247601162499999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.20017900967499899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.20032887187500001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.20091147977500001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2213716849999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.33486809249999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3437629875000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.4012001862499899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.30056521999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.36937465749999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.3234238049999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.3578938099999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20050492658749999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.20052233826249899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2004014771</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.3944096087499998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.22704099E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1462152799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.37436628999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.47862841E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.42606090249999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.20006276748749899</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.20022815802499899</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.20015252831249999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.2000518070375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.20002254999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2000706669125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.20023895018749999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-617C-43F3-A7A6-DE4F1DB0F06E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474494920"/>
+        <c:axId val="474495248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474494920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474495248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474495248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474494920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2030,6 +2988,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2057,6 +3531,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2365,7 +3871,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
